--- a/cgf/shablon.xlsx
+++ b/cgf/shablon.xlsx
@@ -292,6 +292,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -305,22 +314,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -607,7 +614,7 @@
   <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +634,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="9" t="s">
@@ -641,10 +648,10 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="15"/>
       <c r="G2" s="8" t="s">
         <v>11</v>
       </c>
@@ -656,13 +663,13 @@
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -673,11 +680,11 @@
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="14"/>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -688,11 +695,11 @@
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="14"/>
       <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -704,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="15"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
@@ -714,7 +721,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="15"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -724,221 +731,221 @@
         <v>2</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="15"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="15"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="E10" s="7"/>
-      <c r="G10" s="15"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
-      <c r="G11" s="15"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
-      <c r="G12" s="15"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
-      <c r="G13" s="15"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
-      <c r="G14" s="15"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
-      <c r="G15" s="15"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
-      <c r="G16" s="15"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
-      <c r="G17" s="15"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
-      <c r="G18" s="15"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
-      <c r="G19" s="15"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
-      <c r="G20" s="15"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
-      <c r="G21" s="15"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
-      <c r="G22" s="15"/>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
-      <c r="G23" s="15"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
-      <c r="G24" s="15"/>
+      <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
-      <c r="G25" s="15"/>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
-      <c r="G26" s="15"/>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
-      <c r="G27" s="15"/>
+      <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
-      <c r="G28" s="15"/>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
-      <c r="G29" s="15"/>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
-      <c r="G30" s="15"/>
+      <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
-      <c r="G31" s="15"/>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
-      <c r="G32" s="15"/>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="G33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="G34" s="15"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="G35" s="15"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G36" s="15"/>
+      <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G37" s="15"/>
+      <c r="G37" s="10"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G38" s="15"/>
+      <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G39" s="15"/>
+      <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G40" s="15"/>
+      <c r="G40" s="10"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G41" s="15"/>
+      <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G42" s="15"/>
+      <c r="G42" s="10"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G43" s="15"/>
+      <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G44" s="15"/>
+      <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G45" s="15"/>
+      <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G46" s="15"/>
+      <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G47" s="15"/>
+      <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G48" s="15"/>
+      <c r="G48" s="10"/>
     </row>
     <row r="49" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G49" s="15"/>
+      <c r="G49" s="10"/>
     </row>
     <row r="50" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G50" s="15"/>
+      <c r="G50" s="10"/>
     </row>
     <row r="51" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G51" s="15"/>
+      <c r="G51" s="10"/>
     </row>
     <row r="52" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G52" s="15"/>
+      <c r="G52" s="10"/>
     </row>
     <row r="53" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G53" s="15"/>
+      <c r="G53" s="10"/>
     </row>
     <row r="54" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G54" s="15"/>
+      <c r="G54" s="10"/>
     </row>
     <row r="55" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G55" s="15"/>
+      <c r="G55" s="10"/>
     </row>
     <row r="56" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G56" s="15"/>
+      <c r="G56" s="10"/>
     </row>
     <row r="57" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G57" s="15"/>
+      <c r="G57" s="10"/>
     </row>
     <row r="58" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G58" s="15"/>
+      <c r="G58" s="10"/>
     </row>
     <row r="59" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G59" s="15"/>
+      <c r="G59" s="10"/>
     </row>
     <row r="60" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G60" s="15"/>
+      <c r="G60" s="10"/>
     </row>
     <row r="61" spans="7:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G61" s="2"/>
@@ -998,7 +1005,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="7:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G80" s="16" t="s">
+      <c r="G80" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1009,6 +1016,9 @@
     <mergeCell ref="A33:B35"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:A32">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E9">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
